--- a/resources/generated_datasets/workflow_dataset/code_description.xlsx
+++ b/resources/generated_datasets/workflow_dataset/code_description.xlsx
@@ -308,32 +308,32 @@
   </cellXfs>
   <cellStyles count="27">
     <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
-    <cellStyle name="-2631227458274829423" xfId="1" hidden="0"/>
-    <cellStyle name="-3093569793857962051" xfId="2" hidden="0"/>
-    <cellStyle name="5772688811609202472" xfId="3" hidden="0"/>
-    <cellStyle name="2635494150941538047" xfId="4" hidden="0"/>
-    <cellStyle name="-6546308781908190079" xfId="5" hidden="0"/>
-    <cellStyle name="-6648368407888267074" xfId="6" hidden="0"/>
-    <cellStyle name="6988303751481207140" xfId="7" hidden="0"/>
-    <cellStyle name="5613356342389192849" xfId="8" hidden="0"/>
-    <cellStyle name="8377332387650101123" xfId="9" hidden="0"/>
-    <cellStyle name="6841717024544169402" xfId="10" hidden="0"/>
-    <cellStyle name="2119741509578045593" xfId="11" hidden="0"/>
-    <cellStyle name="-5202877334320279881" xfId="12" hidden="0"/>
-    <cellStyle name="1905911432873873698" xfId="13" hidden="0"/>
-    <cellStyle name="5923346412038155391" xfId="14" hidden="0"/>
-    <cellStyle name="4934426389890751359" xfId="15" hidden="0"/>
-    <cellStyle name="3021514800821082367" xfId="16" hidden="0"/>
-    <cellStyle name="-1410629600963107525" xfId="17" hidden="0"/>
-    <cellStyle name="8384517440268896387" xfId="18" hidden="0"/>
-    <cellStyle name="-6585608929328970320" xfId="19" hidden="0"/>
-    <cellStyle name="6771688325306535831" xfId="20" hidden="0"/>
-    <cellStyle name="1169904948299937395" xfId="21" hidden="0"/>
-    <cellStyle name="4412991363583581221" xfId="22" hidden="0"/>
-    <cellStyle name="-7051867626071235619" xfId="23" hidden="0"/>
-    <cellStyle name="7768282224320061924" xfId="24" hidden="0"/>
-    <cellStyle name="-5293332679317095438" xfId="25" hidden="0"/>
-    <cellStyle name="6044622627198302599" xfId="26" hidden="0"/>
+    <cellStyle name="-6251455657042946736" xfId="1" hidden="0"/>
+    <cellStyle name="8809456011773502984" xfId="2" hidden="0"/>
+    <cellStyle name="-7874868971896280358" xfId="3" hidden="0"/>
+    <cellStyle name="-7283789897184778354" xfId="4" hidden="0"/>
+    <cellStyle name="4225512434410814378" xfId="5" hidden="0"/>
+    <cellStyle name="-1202102775794236899" xfId="6" hidden="0"/>
+    <cellStyle name="5775613049609939152" xfId="7" hidden="0"/>
+    <cellStyle name="-5389963344504683154" xfId="8" hidden="0"/>
+    <cellStyle name="6147344236458794012" xfId="9" hidden="0"/>
+    <cellStyle name="-5571567237660556803" xfId="10" hidden="0"/>
+    <cellStyle name="-8054132200070528401" xfId="11" hidden="0"/>
+    <cellStyle name="8399487120293419077" xfId="12" hidden="0"/>
+    <cellStyle name="856168010383172535" xfId="13" hidden="0"/>
+    <cellStyle name="-5780290457749479474" xfId="14" hidden="0"/>
+    <cellStyle name="6831430397036488722" xfId="15" hidden="0"/>
+    <cellStyle name="6529779759243325881" xfId="16" hidden="0"/>
+    <cellStyle name="6528733072825118541" xfId="17" hidden="0"/>
+    <cellStyle name="7422524228239151971" xfId="18" hidden="0"/>
+    <cellStyle name="5302964805020700047" xfId="19" hidden="0"/>
+    <cellStyle name="5608476771340433770" xfId="20" hidden="0"/>
+    <cellStyle name="-6881689473046597700" xfId="21" hidden="0"/>
+    <cellStyle name="-3292860852833170034" xfId="22" hidden="0"/>
+    <cellStyle name="7515444972196302722" xfId="23" hidden="0"/>
+    <cellStyle name="-2021479669451956161" xfId="24" hidden="0"/>
+    <cellStyle name="-3752847847460444635" xfId="25" hidden="0"/>
+    <cellStyle name="8188828645434170035" xfId="26" hidden="0"/>
   </cellStyles>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
